--- a/storage/app/public/input data/displacements/lcb.xlsx
+++ b/storage/app/public/input data/displacements/lcb.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\database\storage\app\public\input data\displacements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations.sharepoint.com/sites/OCHAROWCA/Information Management/30 DataBase/datas/displacements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534CB672-9087-4E53-90A4-89AEDC4760B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{534CB672-9087-4E53-90A4-89AEDC4760B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6581EC59-F2D4-4F36-91E4-3C99EBC96627}"/>
   <bookViews>
-    <workbookView xWindow="1512" yWindow="2388" windowWidth="23040" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1536" windowWidth="23040" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="57">
   <si>
     <t>Country</t>
   </si>
@@ -162,22 +170,40 @@
     <t xml:space="preserve">Plannification 2020 </t>
   </si>
   <si>
-    <t>Extrême-Nord</t>
-  </si>
-  <si>
     <t>OCHA Niger</t>
   </si>
   <si>
     <t>OIM DTM</t>
   </si>
   <si>
-    <t>chad</t>
-  </si>
-  <si>
     <t>OCHA Tchad</t>
   </si>
   <si>
     <t>OCHA Niger May 2020</t>
+  </si>
+  <si>
+    <t>DTM Round 13</t>
+  </si>
+  <si>
+    <t>IOM DTM Round 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNHCR Niger Population of Concern </t>
+  </si>
+  <si>
+    <t>IOM DTM Round 35</t>
+  </si>
+  <si>
+    <t>UNHCR BiMonthly Statistics Report - February 2021</t>
+  </si>
+  <si>
+    <t>UNHCR : PERSONNES RELEVANT DE LA COMPETENCE DU HCR AU TCHAD</t>
+  </si>
+  <si>
+    <t>UNHCR Niger Population of Concern 28 February 2021</t>
+  </si>
+  <si>
+    <t>Source : OIM Lac DTM Round 13, Sud DTM round 2, UNHCR statistiques de Novembre 2020</t>
   </si>
 </sst>
 </file>
@@ -186,8 +212,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -225,18 +251,19 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{6C7982C6-BB23-4F61-9447-5F6942335306}"/>
@@ -261,11 +288,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40130A66-C840-49DE-ABC0-EFD791C7B012}" name="Tableau1" displayName="Tableau1" ref="A1:H69" totalsRowShown="0">
-  <autoFilter ref="A1:H69" xr:uid="{9F9617B1-413C-4756-ABAE-AE0530F37F96}">
-    <filterColumn colId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40130A66-C840-49DE-ABC0-EFD791C7B012}" name="Tableau1" displayName="Tableau1" ref="A1:H84" totalsRowShown="0">
+  <autoFilter ref="A1:H84" xr:uid="{9F9617B1-413C-4756-ABAE-AE0530F37F96}">
+    <filterColumn colId="0">
       <filters>
-        <filter val="TD07"/>
+        <filter val="Chad"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -546,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,6 +585,7 @@
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1453,7 +1481,7 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -1491,7 +1519,7 @@
         <v>102726</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" s="1">
         <v>44011</v>
@@ -1517,7 +1545,7 @@
         <v>206422</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" s="1">
         <v>44011</v>
@@ -1543,7 +1571,7 @@
         <v>1506537</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" s="1">
         <v>44011</v>
@@ -1569,7 +1597,7 @@
         <v>133183</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" s="1">
         <v>44011</v>
@@ -1577,7 +1605,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -1595,7 +1623,7 @@
         <v>284606</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H40" s="1">
         <v>44011</v>
@@ -1609,7 +1637,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -1733,7 +1761,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
@@ -1765,7 +1793,7 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
@@ -1803,7 +1831,7 @@
         <v>102726</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H48" s="1">
         <v>44088</v>
@@ -1829,7 +1857,7 @@
         <v>206969</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" s="1">
         <v>44088</v>
@@ -1855,7 +1883,7 @@
         <v>1547013</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" s="1">
         <v>44088</v>
@@ -1881,7 +1909,7 @@
         <v>139393</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" s="1">
         <v>44088</v>
@@ -1889,7 +1917,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -1907,7 +1935,7 @@
         <v>297187</v>
       </c>
       <c r="G52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H52" s="1">
         <v>44088</v>
@@ -1921,7 +1949,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -1941,7 +1969,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -1993,7 +2021,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -2011,7 +2039,7 @@
         <v>15374</v>
       </c>
       <c r="G56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H56" s="1">
         <v>44089</v>
@@ -2019,7 +2047,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -2037,7 +2065,7 @@
         <v>30461</v>
       </c>
       <c r="G57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H57" s="1">
         <v>44089</v>
@@ -2059,14 +2087,14 @@
       <c r="E58" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="6">
         <v>102726</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
       </c>
       <c r="H58" s="1">
-        <v>44104</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -2085,7 +2113,7 @@
       <c r="E59" t="s">
         <v>35</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="7">
         <v>126543</v>
       </c>
       <c r="G59" t="s">
@@ -2103,7 +2131,7 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
@@ -2111,7 +2139,7 @@
       <c r="E60" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="4">
         <v>321886</v>
       </c>
       <c r="G60" t="s">
@@ -2141,7 +2169,7 @@
         <v>213467</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" s="1">
         <v>44158</v>
@@ -2167,7 +2195,7 @@
         <v>1556011</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" s="1">
         <v>44158</v>
@@ -2193,7 +2221,7 @@
         <v>142425</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" s="1">
         <v>44158</v>
@@ -2201,7 +2229,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
@@ -2233,7 +2261,7 @@
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
@@ -2241,7 +2269,7 @@
       <c r="E65" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="5">
         <v>114710</v>
       </c>
       <c r="G65" t="s">
@@ -2331,7 +2359,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
@@ -2353,6 +2381,396 @@
       </c>
       <c r="H69" s="1">
         <v>44158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70">
+        <v>336124</v>
+      </c>
+      <c r="G70" t="s">
+        <v>49</v>
+      </c>
+      <c r="H70" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71">
+        <v>321886</v>
+      </c>
+      <c r="G71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72">
+        <v>104588</v>
+      </c>
+      <c r="G72" t="s">
+        <v>51</v>
+      </c>
+      <c r="H72" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73">
+        <v>209252</v>
+      </c>
+      <c r="G73" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74">
+        <v>1603044</v>
+      </c>
+      <c r="G74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75">
+        <v>143759</v>
+      </c>
+      <c r="G75" t="s">
+        <v>52</v>
+      </c>
+      <c r="H75" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>35</v>
+      </c>
+      <c r="F76">
+        <v>116290</v>
+      </c>
+      <c r="G76" t="s">
+        <v>53</v>
+      </c>
+      <c r="H76" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77">
+        <v>16117</v>
+      </c>
+      <c r="G77" t="s">
+        <v>54</v>
+      </c>
+      <c r="H77" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78">
+        <v>127233</v>
+      </c>
+      <c r="G78" t="s">
+        <v>55</v>
+      </c>
+      <c r="H78" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79">
+        <v>123489</v>
+      </c>
+      <c r="G79" t="s">
+        <v>50</v>
+      </c>
+      <c r="H79" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80">
+        <v>57359</v>
+      </c>
+      <c r="G80" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="1">
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81">
+        <v>35659</v>
+      </c>
+      <c r="G81" t="s">
+        <v>55</v>
+      </c>
+      <c r="H81" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82">
+        <v>820734</v>
+      </c>
+      <c r="G82" t="s">
+        <v>52</v>
+      </c>
+      <c r="H82" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83">
+        <v>724263</v>
+      </c>
+      <c r="G83" t="s">
+        <v>52</v>
+      </c>
+      <c r="H83" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84">
+        <v>197910</v>
+      </c>
+      <c r="G84" t="s">
+        <v>52</v>
+      </c>
+      <c r="H84" s="1">
+        <v>44166</v>
       </c>
     </row>
   </sheetData>
@@ -2361,4 +2779,272 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D56D188CBA27BF43BA16AB0991F8810A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d74f8ed3820e849c6c24bebf382cead">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d04cdad-faad-4bbc-9725-fbca26071bed" xmlns:ns3="d4bd7185-3ccc-47d5-be69-542fd420c7c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="92b3107f17917cdf1896d29dfba996e5" ns2:_="" ns3:_="">
+    <xsd:import namespace="2d04cdad-faad-4bbc-9725-fbca26071bed"/>
+    <xsd:import namespace="d4bd7185-3ccc-47d5-be69-542fd420c7c8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2d04cdad-faad-4bbc-9725-fbca26071bed" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d4bd7185-3ccc-47d5-be69-542fd420c7c8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="4" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="3" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021832B7-19FD-4F93-A791-01AA84E1E279}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3358DED-6AC8-47BB-AE36-0612AAB1A2E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2d04cdad-faad-4bbc-9725-fbca26071bed"/>
+    <ds:schemaRef ds:uri="d4bd7185-3ccc-47d5-be69-542fd420c7c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{088B758D-246A-4597-AF40-99664A7FC0FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>